--- a/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Guillaume.xlsx
+++ b/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Guillaume.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8D4973-A18D-40D7-8D42-5EAB5331AABB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B3F649-518F-41CF-8F0E-60741AA660CB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,9 +463,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -474,6 +471,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A32" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,10 +807,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
@@ -839,7 +839,7 @@
       <c r="C5" s="8">
         <v>1.25</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <f>SUM(C5:C9)</f>
         <v>12</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="C6" s="8">
         <v>1.75</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -866,7 +866,7 @@
       <c r="C7" s="8">
         <v>4</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -878,7 +878,7 @@
       <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -890,7 +890,7 @@
       <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -902,7 +902,7 @@
       <c r="C10" s="8">
         <v>1.5</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <f>SUM(C10:C23)</f>
         <v>12.45</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="C11" s="8">
         <v>0.4</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
@@ -929,7 +929,7 @@
       <c r="C12" s="8">
         <v>0.5</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -941,7 +941,7 @@
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
@@ -953,7 +953,7 @@
       <c r="C14" s="8">
         <v>0.25</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -965,7 +965,7 @@
       <c r="C15" s="8">
         <v>0.1</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
@@ -977,7 +977,7 @@
       <c r="C16" s="8">
         <v>0.5</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -989,7 +989,7 @@
       <c r="C17" s="8">
         <v>0.2</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -1001,7 +1001,7 @@
       <c r="C18" s="8">
         <v>0.5</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
@@ -1013,7 +1013,7 @@
       <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -1025,7 +1025,7 @@
       <c r="C20" s="8">
         <v>0.3</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -1037,7 +1037,7 @@
       <c r="C21" s="8">
         <v>0.5</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1049,7 +1049,7 @@
       <c r="C22" s="8">
         <v>5</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
@@ -1061,7 +1061,7 @@
       <c r="C23" s="8">
         <v>0.7</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
@@ -1073,7 +1073,7 @@
       <c r="C24" s="8">
         <v>0.8</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <f>SUM(C24:C28)</f>
         <v>5.2</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="C25" s="8">
         <v>0.5</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
@@ -1100,7 +1100,7 @@
       <c r="C26" s="8">
         <v>0.5</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
@@ -1112,7 +1112,7 @@
       <c r="C27" s="8">
         <v>0.4</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
@@ -1124,7 +1124,7 @@
       <c r="C28" s="8">
         <v>3</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
@@ -1136,7 +1136,7 @@
       <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <f>SUM(C29:C32)</f>
         <v>4</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="C30" s="8">
         <v>1</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
@@ -1163,7 +1163,7 @@
       <c r="C31" s="8">
         <v>1</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="14"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
@@ -1175,7 +1175,7 @@
       <c r="C32" s="8">
         <v>1</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
@@ -1187,7 +1187,7 @@
       <c r="C33" s="8">
         <v>1</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <f>SUM(C33:C42)</f>
         <v>15.5</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="C34" s="8">
         <v>1</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="14"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
@@ -1214,7 +1214,7 @@
       <c r="C35" s="8">
         <v>4.5</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="14"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
@@ -1226,7 +1226,7 @@
       <c r="C36" s="8">
         <v>0.5</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -1238,7 +1238,7 @@
       <c r="C37" s="8">
         <v>1</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="14"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
@@ -1250,7 +1250,7 @@
       <c r="C38" s="8">
         <v>3</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="14"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
@@ -1262,7 +1262,7 @@
       <c r="C39" s="8">
         <v>1</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="14"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -1274,7 +1274,7 @@
       <c r="C40" s="8">
         <v>2</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="14"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -1286,7 +1286,7 @@
       <c r="C41" s="8">
         <v>1</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="14"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
@@ -1298,9 +1298,9 @@
       <c r="C42" s="8">
         <v>0.5</v>
       </c>
-      <c r="D42" s="16"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>43206</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="C43" s="8">
         <v>2</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <f>SUM(C43:C46)</f>
         <v>6</v>
       </c>
@@ -1325,7 +1325,7 @@
       <c r="C44" s="8">
         <v>1</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
@@ -1337,7 +1337,7 @@
       <c r="C45" s="8">
         <v>1</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="14"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
@@ -1349,7 +1349,7 @@
       <c r="C46" s="8">
         <v>2</v>
       </c>
-      <c r="D46" s="16"/>
+      <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
@@ -1361,7 +1361,7 @@
       <c r="C47" s="8">
         <v>1</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <f>SUM(C47:C53)</f>
         <v>5.2</v>
       </c>
@@ -1376,7 +1376,7 @@
       <c r="C48" s="8">
         <v>0.5</v>
       </c>
-      <c r="D48" s="15"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
@@ -1388,7 +1388,7 @@
       <c r="C49" s="8">
         <v>2</v>
       </c>
-      <c r="D49" s="15"/>
+      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
@@ -1400,7 +1400,7 @@
       <c r="C50" s="8">
         <v>0.5</v>
       </c>
-      <c r="D50" s="15"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
@@ -1412,7 +1412,7 @@
       <c r="C51" s="8">
         <v>0.5</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
@@ -1424,7 +1424,7 @@
       <c r="C52" s="8">
         <v>0.2</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="14"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
@@ -1436,7 +1436,7 @@
       <c r="C53" s="8">
         <v>0.5</v>
       </c>
-      <c r="D53" s="16"/>
+      <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
@@ -1448,7 +1448,7 @@
       <c r="C54" s="8">
         <v>1</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="13">
         <f>SUM(C54:C61)</f>
         <v>7.25</v>
       </c>
@@ -1463,7 +1463,7 @@
       <c r="C55" s="8">
         <v>0.25</v>
       </c>
-      <c r="D55" s="15"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
@@ -1475,7 +1475,7 @@
       <c r="C56" s="8">
         <v>0.5</v>
       </c>
-      <c r="D56" s="15"/>
+      <c r="D56" s="14"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
@@ -1487,7 +1487,7 @@
       <c r="C57" s="8">
         <v>2</v>
       </c>
-      <c r="D57" s="15"/>
+      <c r="D57" s="14"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
@@ -1499,7 +1499,7 @@
       <c r="C58" s="8">
         <v>0.5</v>
       </c>
-      <c r="D58" s="15"/>
+      <c r="D58" s="14"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
@@ -1511,7 +1511,7 @@
       <c r="C59" s="8">
         <v>0.5</v>
       </c>
-      <c r="D59" s="15"/>
+      <c r="D59" s="14"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
@@ -1523,7 +1523,7 @@
       <c r="C60" s="8">
         <v>0.5</v>
       </c>
-      <c r="D60" s="15"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
@@ -1535,7 +1535,7 @@
       <c r="C61" s="8">
         <v>2</v>
       </c>
-      <c r="D61" s="16"/>
+      <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
@@ -1547,7 +1547,7 @@
       <c r="C62" s="8">
         <v>0.5</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="13">
         <f>SUM(C62:C69)</f>
         <v>12</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C63" s="8">
         <v>2</v>
       </c>
-      <c r="D63" s="15"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
@@ -1574,7 +1574,7 @@
       <c r="C64" s="8">
         <v>4</v>
       </c>
-      <c r="D64" s="15"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
@@ -1586,7 +1586,7 @@
       <c r="C65" s="8">
         <v>1</v>
       </c>
-      <c r="D65" s="15"/>
+      <c r="D65" s="14"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
@@ -1598,7 +1598,7 @@
       <c r="C66" s="8">
         <v>0.5</v>
       </c>
-      <c r="D66" s="15"/>
+      <c r="D66" s="14"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
@@ -1610,7 +1610,7 @@
       <c r="C67" s="8">
         <v>3</v>
       </c>
-      <c r="D67" s="15"/>
+      <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
@@ -1622,7 +1622,7 @@
       <c r="C68" s="8">
         <v>0.5</v>
       </c>
-      <c r="D68" s="15"/>
+      <c r="D68" s="14"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
@@ -1634,7 +1634,7 @@
       <c r="C69" s="8">
         <v>0.5</v>
       </c>
-      <c r="D69" s="16"/>
+      <c r="D69" s="15"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
@@ -1646,7 +1646,7 @@
       <c r="C70" s="8">
         <v>3</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D70" s="13">
         <f>SUM(C70:C76)</f>
         <v>14.5</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="C71" s="8">
         <v>0.5</v>
       </c>
-      <c r="D71" s="15"/>
+      <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
@@ -1673,7 +1673,7 @@
       <c r="C72" s="8">
         <v>2</v>
       </c>
-      <c r="D72" s="15"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
@@ -1685,7 +1685,7 @@
       <c r="C73" s="8">
         <v>1</v>
       </c>
-      <c r="D73" s="15"/>
+      <c r="D73" s="14"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
@@ -1697,7 +1697,7 @@
       <c r="C74" s="8">
         <v>2</v>
       </c>
-      <c r="D74" s="15"/>
+      <c r="D74" s="14"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
@@ -1709,7 +1709,7 @@
       <c r="C75" s="8">
         <v>1</v>
       </c>
-      <c r="D75" s="15"/>
+      <c r="D75" s="14"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
@@ -1721,7 +1721,7 @@
       <c r="C76" s="8">
         <v>5</v>
       </c>
-      <c r="D76" s="16"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
@@ -1852,19 +1852,28 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="D29:D32"/>
     <mergeCell ref="D70:D76"/>
     <mergeCell ref="D33:D42"/>
     <mergeCell ref="D43:D46"/>
     <mergeCell ref="D47:D53"/>
     <mergeCell ref="D54:D61"/>
     <mergeCell ref="D62:D69"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D23"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="D29:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L
+________________________________________&amp;C
+________________________________________&amp;RJournal de travail - Guillaume Zaretti
+________________________________________
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;C&amp;K09-021&amp;P&amp;K01+000
+</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>